--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N2">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O2">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P2">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q2">
-        <v>43.60011212278566</v>
+        <v>0.2916429641551111</v>
       </c>
       <c r="R2">
-        <v>43.60011212278566</v>
+        <v>2.624786677396</v>
       </c>
       <c r="S2">
-        <v>0.4615335486812511</v>
+        <v>0.002741646345639565</v>
       </c>
       <c r="T2">
-        <v>0.4615335486812511</v>
+        <v>0.002741646345639564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N3">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q3">
-        <v>24.21093507464802</v>
+        <v>0.1501695582827778</v>
       </c>
       <c r="R3">
-        <v>24.21093507464802</v>
+        <v>1.351526024545</v>
       </c>
       <c r="S3">
-        <v>0.2562873863816051</v>
+        <v>0.001411698107941721</v>
       </c>
       <c r="T3">
-        <v>0.2562873863816051</v>
+        <v>0.00141169810794172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H4">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N4">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O4">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P4">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q4">
-        <v>0.5046540312284312</v>
+        <v>0.004007149809444444</v>
       </c>
       <c r="R4">
-        <v>0.5046540312284312</v>
+        <v>0.036064348285</v>
       </c>
       <c r="S4">
-        <v>0.005342068048660686</v>
+        <v>3.766999030242542E-05</v>
       </c>
       <c r="T4">
-        <v>0.005342068048660686</v>
+        <v>3.766999030242541E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +723,421 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H5">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.0876487153747</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N5">
-        <v>15.0876487153747</v>
+        <v>0.426419</v>
       </c>
       <c r="O5">
-        <v>0.2768369968884832</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P5">
-        <v>0.2768369968884832</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q5">
-        <v>26.15221393669287</v>
+        <v>0.001521226092555556</v>
       </c>
       <c r="R5">
-        <v>26.15221393669287</v>
+        <v>0.013691034833</v>
       </c>
       <c r="S5">
-        <v>0.2768369968884832</v>
+        <v>1.430058143054778E-05</v>
       </c>
       <c r="T5">
-        <v>0.2768369968884832</v>
+        <v>1.430058143054778E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.032107</v>
+      </c>
+      <c r="I6">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="J6">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.009092</v>
+      </c>
+      <c r="N6">
+        <v>54.027276</v>
+      </c>
+      <c r="O6">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P6">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q6">
+        <v>0.1927393056146667</v>
+      </c>
+      <c r="R6">
+        <v>1.734653750532</v>
+      </c>
+      <c r="S6">
+        <v>0.001811883288288466</v>
+      </c>
+      <c r="T6">
+        <v>0.001811883288288466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.303765</v>
+      </c>
+      <c r="I7">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J7">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N7">
+        <v>81.751228</v>
+      </c>
+      <c r="O7">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P7">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q7">
+        <v>48.17658908593556</v>
+      </c>
+      <c r="R7">
+        <v>433.58930177342</v>
+      </c>
+      <c r="S7">
+        <v>0.4528933855664194</v>
+      </c>
+      <c r="T7">
+        <v>0.4528933855664193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.303765</v>
+      </c>
+      <c r="I8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N8">
+        <v>42.094435</v>
+      </c>
+      <c r="O8">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P8">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q8">
+        <v>24.80655456086389</v>
+      </c>
+      <c r="R8">
+        <v>223.258991047775</v>
+      </c>
+      <c r="S8">
+        <v>0.2331988356267331</v>
+      </c>
+      <c r="T8">
+        <v>0.2331988356267331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.303765</v>
+      </c>
+      <c r="I9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.123255</v>
+      </c>
+      <c r="O9">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P9">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q9">
+        <v>0.6619422838972223</v>
+      </c>
+      <c r="R9">
+        <v>5.957480555075001</v>
+      </c>
+      <c r="S9">
+        <v>0.006222717043521456</v>
+      </c>
+      <c r="T9">
+        <v>0.006222717043521456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.303765</v>
+      </c>
+      <c r="I10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.426419</v>
+      </c>
+      <c r="O10">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P10">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q10">
+        <v>0.2512917963927778</v>
+      </c>
+      <c r="R10">
+        <v>2.261626167535</v>
+      </c>
+      <c r="S10">
+        <v>0.002362317353567423</v>
+      </c>
+      <c r="T10">
+        <v>0.002362317353567422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.303765</v>
+      </c>
+      <c r="I11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.009092</v>
+      </c>
+      <c r="N11">
+        <v>54.027276</v>
+      </c>
+      <c r="O11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q11">
+        <v>31.83866394379334</v>
+      </c>
+      <c r="R11">
+        <v>286.54797549414</v>
+      </c>
+      <c r="S11">
+        <v>0.2993055460961559</v>
+      </c>
+      <c r="T11">
+        <v>0.2993055460961559</v>
       </c>
     </row>
   </sheetData>
